--- a/amc_resources/ab_molecules_amc.xlsx
+++ b/amc_resources/ab_molecules_amc.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M492"/>
+  <dimension ref="A1:M615"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25125,12 +25125,12 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
@@ -25140,7 +25140,7 @@
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -25157,12 +25157,12 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
@@ -25172,7 +25172,7 @@
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -25189,12 +25189,12 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
@@ -25204,7 +25204,7 @@
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -25221,12 +25221,12 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
@@ -25236,7 +25236,7 @@
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -25253,12 +25253,12 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
@@ -25268,7 +25268,7 @@
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -25285,12 +25285,12 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -25300,7 +25300,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -25317,12 +25317,12 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
@@ -25332,7 +25332,7 @@
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -25349,12 +25349,12 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
@@ -25364,7 +25364,7 @@
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -25381,12 +25381,12 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
@@ -25396,7 +25396,7 @@
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -25413,12 +25413,12 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
@@ -25428,7 +25428,7 @@
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -25445,12 +25445,12 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
@@ -25460,7 +25460,7 @@
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -25477,12 +25477,12 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
@@ -25492,7 +25492,7 @@
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -25509,12 +25509,12 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
@@ -25524,7 +25524,7 @@
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -25541,12 +25541,12 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
@@ -25556,7 +25556,7 @@
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -25573,12 +25573,12 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
@@ -25588,7 +25588,7 @@
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -25605,12 +25605,12 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
@@ -25620,7 +25620,7 @@
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -25637,12 +25637,12 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -25652,7 +25652,7 @@
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -25669,12 +25669,12 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -25684,7 +25684,7 @@
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -25701,12 +25701,12 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
@@ -25716,7 +25716,7 @@
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -25733,12 +25733,12 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
@@ -25748,7 +25748,7 @@
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -25765,12 +25765,12 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
@@ -25780,7 +25780,7 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -25797,12 +25797,12 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
@@ -25812,7 +25812,7 @@
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -25829,12 +25829,12 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
@@ -25844,7 +25844,7 @@
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -25861,12 +25861,12 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
@@ -25876,7 +25876,7 @@
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -25893,12 +25893,12 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
@@ -25908,7 +25908,7 @@
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -25925,12 +25925,12 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
@@ -25940,7 +25940,7 @@
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -25957,12 +25957,12 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F492" t="inlineStr">
@@ -25972,12 +25972,3948 @@
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
           <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>griseofulvin</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>griseofulvin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>aciclovir</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>aciclovir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>terbinafine</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>terbinafine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>aciclovir</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>aciclovir_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>micafungin</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>micafungin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>entecavir</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>entecavir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>ribavirin</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>ribavirin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>alafenamide,tenofovir</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>alafenamide,tenofovir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>artemisinin,piperaquine,artenimol</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>artemisinin,piperaquine,artenimol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>artemether,lumefantrine</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>artemether,lumefantrine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>mefloquine</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>mefloquine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>ganciclovir</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>ganciclovir_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>proguanil</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>proguanil_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>efavirenz,emtricitabine,tenofovir</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>efavirenz,emtricitabine,tenofovir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>artemether</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>artemether_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>artesunate</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I508" t="inlineStr">
+        <is>
+          <t>artesunate_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>valaciclovir</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>valaciclovir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>hydroxychloroquine</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>hydroxychloroquine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>dapsone</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I511" t="inlineStr">
+        <is>
+          <t>dapsone_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>valganciclovir</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I512" t="inlineStr">
+        <is>
+          <t>valganciclovir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>anidulafungin</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>anidulafungin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>posaconazole</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>posaconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>sofosbuvir,velpatasvir</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>sofosbuvir,velpatasvir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>ledipasvir,sofosbuvir</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I516" t="inlineStr">
+        <is>
+          <t>ledipasvir,sofosbuvir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>efavirenz,lamivudine,tenofovir</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>efavirenz,lamivudine,tenofovir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>caspofungin</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>caspofungin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>famciclovir</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>famciclovir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>ketoconazole</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>ketoconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>abacavir,dolutegravir,lamivudine</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>abacavir,dolutegravir,lamivudine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>dolutegravir</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>dolutegravir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>abacavir,lamivudine</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I523" t="inlineStr">
+        <is>
+          <t>abacavir,lamivudine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>lamivudine,zidovudine</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>lamivudine,zidovudine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>lamivudine,tenofovir</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>lamivudine,tenofovir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>rilpivirine</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I526" t="inlineStr">
+        <is>
+          <t>rilpivirine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>rilpivirine</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I527" t="inlineStr">
+        <is>
+          <t>rilpivirine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>dolutegravir,lamivudine,tenofovir</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I528" t="inlineStr">
+        <is>
+          <t>dolutegravir,lamivudine,tenofovir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>atazanavir,ritonavir</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I529" t="inlineStr">
+        <is>
+          <t>atazanavir,ritonavir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>bedaquiline</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I530" t="inlineStr">
+        <is>
+          <t>bedaquiline_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>delamanid</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I531" t="inlineStr">
+        <is>
+          <t>delamanid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>darunavir</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>darunavir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>etravirine</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I533" t="inlineStr">
+        <is>
+          <t>etravirine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>clofazimine</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I534" t="inlineStr">
+        <is>
+          <t>clofazimine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>protionamide</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I535" t="inlineStr">
+        <is>
+          <t>protionamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>oseltamivir</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>oseltamivir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>artemether</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I537" t="inlineStr">
+        <is>
+          <t>artemether_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>lamivudine</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I538" t="inlineStr">
+        <is>
+          <t>lamivudine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>abacavir</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I539" t="inlineStr">
+        <is>
+          <t>abacavir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>zidovudine</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I540" t="inlineStr">
+        <is>
+          <t>zidovudine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>raltegravir</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I541" t="inlineStr">
+        <is>
+          <t>raltegravir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>artemesinin,artemisinin,piperaquine</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I542" t="inlineStr">
+        <is>
+          <t>artemesinin,artemisinin,piperaquine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>atovaquone,proguanil</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I543" t="inlineStr">
+        <is>
+          <t>atovaquone,proguanil_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>rifabutin</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I544" t="inlineStr">
+        <is>
+          <t>rifabutin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>tenofovir</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I545" t="inlineStr">
+        <is>
+          <t>tenofovir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>artesunate</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>rectal</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I546" t="inlineStr">
+        <is>
+          <t>artesunate_rectal</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>pretomanid</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I547" t="inlineStr">
+        <is>
+          <t>pretomanid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>cabotegravir</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I548" t="inlineStr">
+        <is>
+          <t>cabotegravir_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>amodiaquine,artesunate</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I549" t="inlineStr">
+        <is>
+          <t>amodiaquine,artesunate_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>atovaquone</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I550" t="inlineStr">
+        <is>
+          <t>atovaquone_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>daclatasvir,sofosbuvir</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I551" t="inlineStr">
+        <is>
+          <t>daclatasvir,sofosbuvir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>pyrimethamine,sulfadoxine</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I552" t="inlineStr">
+        <is>
+          <t>pyrimethamine,sulfadoxine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>griseofulvin</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I553" t="inlineStr">
+        <is>
+          <t>griseofulvin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>aciclovir</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I554" t="inlineStr">
+        <is>
+          <t>aciclovir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>terbinafine</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I555" t="inlineStr">
+        <is>
+          <t>terbinafine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>aciclovir</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I556" t="inlineStr">
+        <is>
+          <t>aciclovir_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>micafungin</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I557" t="inlineStr">
+        <is>
+          <t>micafungin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>entecavir</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I558" t="inlineStr">
+        <is>
+          <t>entecavir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>ribavirin</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I559" t="inlineStr">
+        <is>
+          <t>ribavirin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>tenofovir</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I560" t="inlineStr">
+        <is>
+          <t>tenofovir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>alafenamide</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I561" t="inlineStr">
+        <is>
+          <t>alafenamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>artenimol</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I562" t="inlineStr">
+        <is>
+          <t>artenimol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>artemisinin</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I563" t="inlineStr">
+        <is>
+          <t>artemisinin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>piperaquine</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I564" t="inlineStr">
+        <is>
+          <t>piperaquine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>artemether</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I565" t="inlineStr">
+        <is>
+          <t>artemether_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>lumefantrine</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I566" t="inlineStr">
+        <is>
+          <t>lumefantrine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>mefloquine</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I567" t="inlineStr">
+        <is>
+          <t>mefloquine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>ganciclovir</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I568" t="inlineStr">
+        <is>
+          <t>ganciclovir_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>proguanil</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I569" t="inlineStr">
+        <is>
+          <t>proguanil_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>emtricitabine</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I570" t="inlineStr">
+        <is>
+          <t>emtricitabine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>efavirenz</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I571" t="inlineStr">
+        <is>
+          <t>efavirenz_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>artemether</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I572" t="inlineStr">
+        <is>
+          <t>artemether_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>artesunate</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I573" t="inlineStr">
+        <is>
+          <t>artesunate_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>valaciclovir</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I574" t="inlineStr">
+        <is>
+          <t>valaciclovir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>hydroxychloroquine</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I575" t="inlineStr">
+        <is>
+          <t>hydroxychloroquine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>dapsone</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I576" t="inlineStr">
+        <is>
+          <t>dapsone_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>valganciclovir</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I577" t="inlineStr">
+        <is>
+          <t>valganciclovir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>anidulafungin</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I578" t="inlineStr">
+        <is>
+          <t>anidulafungin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>posaconazole</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I579" t="inlineStr">
+        <is>
+          <t>posaconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>sofosbuvir</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I580" t="inlineStr">
+        <is>
+          <t>sofosbuvir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>velpatasvir</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I581" t="inlineStr">
+        <is>
+          <t>velpatasvir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>ledipasvir</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I582" t="inlineStr">
+        <is>
+          <t>ledipasvir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I583" t="inlineStr">
+        <is>
+          <t>beta_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>lactamase inhibitor</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I584" t="inlineStr">
+        <is>
+          <t>lactamase inhibitor_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>lamivudine</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I585" t="inlineStr">
+        <is>
+          <t>lamivudine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>caspofungin</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I586" t="inlineStr">
+        <is>
+          <t>caspofungin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>famciclovir</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>famciclovir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>ketoconazole</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I588" t="inlineStr">
+        <is>
+          <t>ketoconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>abacavir</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>abacavir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>dolutegravir</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I590" t="inlineStr">
+        <is>
+          <t>dolutegravir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>zidovudine</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I591" t="inlineStr">
+        <is>
+          <t>zidovudine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>rilpivirine</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I592" t="inlineStr">
+        <is>
+          <t>rilpivirine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>rilpivirine</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I593" t="inlineStr">
+        <is>
+          <t>rilpivirine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>atazanavir</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I594" t="inlineStr">
+        <is>
+          <t>atazanavir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>ritonavir</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I595" t="inlineStr">
+        <is>
+          <t>ritonavir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>bedaquiline</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I596" t="inlineStr">
+        <is>
+          <t>bedaquiline_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>delamanid</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I597" t="inlineStr">
+        <is>
+          <t>delamanid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>darunavir</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I598" t="inlineStr">
+        <is>
+          <t>darunavir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>etravirine</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I599" t="inlineStr">
+        <is>
+          <t>etravirine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>clofazimine</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I600" t="inlineStr">
+        <is>
+          <t>clofazimine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>protionamide</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>protionamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>oseltamivir</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>oseltamivir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>raltegravir</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>raltegravir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>artemesinin</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>artemesinin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>atovaquone</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>atovaquone_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>rifabutin</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>rifabutin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>artesunate</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>rectal</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>artesunate_rectal</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>pretomanid</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>pretomanid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>cabotegravir</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>cabotegravir_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>artesunate</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>artesunate_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>amodiaquine</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>amodiaquine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>daclatasvir</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>daclatasvir_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>sulfadoxine</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>sulfadoxine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>pyrimethamine</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I614" t="inlineStr">
+        <is>
+          <t>pyrimethamine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>rifapentine</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>rifapentine_o</t>
         </is>
       </c>
     </row>

--- a/amc_resources/ab_molecules_amc.xlsx
+++ b/amc_resources/ab_molecules_amc.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M654"/>
+  <dimension ref="A1:M681"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30309,12 +30309,12 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F628" t="inlineStr">
@@ -30324,7 +30324,7 @@
       </c>
       <c r="G628" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
@@ -30341,12 +30341,12 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F629" t="inlineStr">
@@ -30356,7 +30356,7 @@
       </c>
       <c r="G629" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
@@ -30373,12 +30373,12 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F630" t="inlineStr">
@@ -30388,7 +30388,7 @@
       </c>
       <c r="G630" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
@@ -30405,12 +30405,12 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F631" t="inlineStr">
@@ -30420,7 +30420,7 @@
       </c>
       <c r="G631" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
@@ -30437,12 +30437,12 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F632" t="inlineStr">
@@ -30452,7 +30452,7 @@
       </c>
       <c r="G632" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I632" t="inlineStr">
@@ -30469,12 +30469,12 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F633" t="inlineStr">
@@ -30484,7 +30484,7 @@
       </c>
       <c r="G633" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
@@ -30501,12 +30501,12 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F634" t="inlineStr">
@@ -30516,7 +30516,7 @@
       </c>
       <c r="G634" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
@@ -30533,12 +30533,12 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F635" t="inlineStr">
@@ -30548,7 +30548,7 @@
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
@@ -30565,12 +30565,12 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F636" t="inlineStr">
@@ -30580,7 +30580,7 @@
       </c>
       <c r="G636" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
@@ -30597,12 +30597,12 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F637" t="inlineStr">
@@ -30612,7 +30612,7 @@
       </c>
       <c r="G637" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
@@ -30629,12 +30629,12 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F638" t="inlineStr">
@@ -30644,7 +30644,7 @@
       </c>
       <c r="G638" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
@@ -30661,12 +30661,12 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F639" t="inlineStr">
@@ -30676,7 +30676,7 @@
       </c>
       <c r="G639" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I639" t="inlineStr">
@@ -30693,12 +30693,12 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F640" t="inlineStr">
@@ -30708,7 +30708,7 @@
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
@@ -30725,12 +30725,12 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F641" t="inlineStr">
@@ -30740,7 +30740,7 @@
       </c>
       <c r="G641" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
@@ -30757,12 +30757,12 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F642" t="inlineStr">
@@ -30772,7 +30772,7 @@
       </c>
       <c r="G642" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
@@ -30789,12 +30789,12 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F643" t="inlineStr">
@@ -30804,7 +30804,7 @@
       </c>
       <c r="G643" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
@@ -30821,12 +30821,12 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F644" t="inlineStr">
@@ -30836,7 +30836,7 @@
       </c>
       <c r="G644" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
@@ -30853,12 +30853,12 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
@@ -30868,7 +30868,7 @@
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
@@ -30885,12 +30885,12 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F646" t="inlineStr">
@@ -30900,7 +30900,7 @@
       </c>
       <c r="G646" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
@@ -30917,12 +30917,12 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F647" t="inlineStr">
@@ -30932,7 +30932,7 @@
       </c>
       <c r="G647" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
@@ -30949,12 +30949,12 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F648" t="inlineStr">
@@ -30964,7 +30964,7 @@
       </c>
       <c r="G648" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
@@ -30981,12 +30981,12 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F649" t="inlineStr">
@@ -30996,7 +30996,7 @@
       </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
@@ -31013,12 +31013,12 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F650" t="inlineStr">
@@ -31028,7 +31028,7 @@
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
@@ -31045,12 +31045,12 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F651" t="inlineStr">
@@ -31060,7 +31060,7 @@
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
@@ -31077,12 +31077,12 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F652" t="inlineStr">
@@ -31092,7 +31092,7 @@
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
@@ -31109,12 +31109,12 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F653" t="inlineStr">
@@ -31124,7 +31124,7 @@
       </c>
       <c r="G653" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
@@ -31141,25 +31141,889 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I654" t="inlineStr">
+        <is>
+          <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
           <t xml:space="preserve">xml:space="preserve"&gt; </t>
         </is>
       </c>
-      <c r="E654" t="inlineStr">
+      <c r="E655" t="inlineStr">
         <is>
           <t xml:space="preserve">xml:space="preserve"&gt; </t>
         </is>
       </c>
-      <c r="F654" t="inlineStr">
+      <c r="F655" t="inlineStr">
         <is>
           <t>o</t>
         </is>
       </c>
-      <c r="G654" t="inlineStr">
+      <c r="G655" t="inlineStr">
         <is>
           <t xml:space="preserve">xml:space="preserve"&gt; </t>
         </is>
       </c>
-      <c r="I654" t="inlineStr">
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>voriconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>voriconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>satranidazole</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I657" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I658" t="inlineStr">
+        <is>
+          <t>rifamycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I659" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I660" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I661" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I662" t="inlineStr">
+        <is>
+          <t>rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I664" t="inlineStr">
+        <is>
+          <t>pyrazinamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I665" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I666" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I667" t="inlineStr">
+        <is>
+          <t>isoniazid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I668" t="inlineStr">
+        <is>
+          <t>flucytosine_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I669" t="inlineStr">
+        <is>
+          <t>ethambutol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I670" t="inlineStr">
+        <is>
+          <t>voriconazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I671" t="inlineStr">
+        <is>
+          <t>voriconazole_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>satranidazole</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I672" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I673" t="inlineStr">
+        <is>
+          <t>rifamycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I674" t="inlineStr">
+        <is>
+          <t>rifampicin_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I675" t="inlineStr">
+        <is>
+          <t>pyrazinamide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I676" t="inlineStr">
+        <is>
+          <t>ethambutol_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I677" t="inlineStr">
+        <is>
+          <t>isoniazid_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I678" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I679" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I680" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I681" t="inlineStr">
         <is>
           <t>flucytosine_o</t>
         </is>

--- a/amc_resources/ab_molecules_amc.xlsx
+++ b/amc_resources/ab_molecules_amc.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M388"/>
+  <dimension ref="A1:M387"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23795,29 +23795,69 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>J01DH51</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>imipenem</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Carbapenems</t>
+        </is>
+      </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>xml:space="preserve"&gt;</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>xml:space="preserve"&gt;</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>xml:space="preserve"&gt;</t>
+          <t>Watch</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>Core</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>satranidazole_o</t>
+          <t>imipenem_p</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>imipenem</t>
+        </is>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>imipenem</t>
+        </is>
+      </c>
+      <c r="M377" t="inlineStr">
+        <is>
+          <t>imipenem</t>
         </is>
       </c>
     </row>
@@ -23905,12 +23945,12 @@
     <row r="381">
       <c r="D381" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -23920,7 +23960,7 @@
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -23930,149 +23970,49 @@
       </c>
     </row>
     <row r="382">
-      <c r="D382" t="inlineStr">
-        <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
-        </is>
-      </c>
-      <c r="E382" t="inlineStr">
-        <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
-        </is>
-      </c>
-      <c r="F382" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="G382" t="inlineStr">
-        <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
-        </is>
-      </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>sulfadimethoxine_p</t>
+          <t>metronidazole_na</t>
         </is>
       </c>
     </row>
     <row r="383">
-      <c r="D383" t="inlineStr">
-        <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
-        </is>
-      </c>
-      <c r="E383" t="inlineStr">
-        <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
-        </is>
-      </c>
-      <c r="F383" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="G383" t="inlineStr">
-        <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
-        </is>
-      </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>paromomycin_p</t>
+          <t>ciprofloxacin_na</t>
         </is>
       </c>
     </row>
     <row r="384">
-      <c r="D384" t="inlineStr">
-        <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
-        </is>
-      </c>
-      <c r="E384" t="inlineStr">
-        <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
-        </is>
-      </c>
-      <c r="F384" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="G384" t="inlineStr">
-        <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
-        </is>
-      </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>nitazoxanide_o</t>
+          <t>ceftriaxone_na</t>
         </is>
       </c>
     </row>
     <row r="385">
-      <c r="D385" t="inlineStr">
-        <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
-        </is>
-      </c>
-      <c r="E385" t="inlineStr">
-        <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
-        </is>
-      </c>
-      <c r="F385" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="G385" t="inlineStr">
-        <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
-        </is>
-      </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>satranidazole_o</t>
+          <t>ampicillin_na</t>
         </is>
       </c>
     </row>
     <row r="386">
-      <c r="D386" t="inlineStr">
-        <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
-        </is>
-      </c>
-      <c r="E386" t="inlineStr">
-        <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
-        </is>
-      </c>
-      <c r="F386" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="G386" t="inlineStr">
-        <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
-        </is>
-      </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>sulfadimethoxine_p</t>
+          <t>gentamicin_na</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="D387" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -24082,39 +24022,12 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+          <t>xml:space="preserve"&gt;</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>paromomycin_p</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="D388" t="inlineStr">
-        <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
-        </is>
-      </c>
-      <c r="E388" t="inlineStr">
-        <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
-        </is>
-      </c>
-      <c r="F388" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="G388" t="inlineStr">
-        <is>
-          <t xml:space="preserve">xml:space="preserve"&gt; </t>
-        </is>
-      </c>
-      <c r="I388" t="inlineStr">
-        <is>
-          <t>nitazoxanide_o</t>
+          <t>pyrazinamide_p</t>
         </is>
       </c>
     </row>

--- a/amc_resources/ab_molecules_amc.xlsx
+++ b/amc_resources/ab_molecules_amc.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M387"/>
+  <dimension ref="A1:M393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20502,6 +20502,11 @@
           <t>ampicillin,cloxacillin_o</t>
         </is>
       </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>ampicillin,cloxacillin</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -20544,6 +20549,11 @@
           <t>ampicillin,oxacillin_p</t>
         </is>
       </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>ampicillin,oxacillin</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -20586,6 +20596,11 @@
           <t>ampicillin,oxacillin_o</t>
         </is>
       </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>ampicillin,oxacillin</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -20628,6 +20643,11 @@
           <t>ampicillin,flucloxacillin_o</t>
         </is>
       </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>ampicillin,flucloxacillin</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -20670,6 +20690,11 @@
           <t>ampicillin,cloxacillin_p</t>
         </is>
       </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>ampicillin,cloxacillin</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -20796,6 +20821,11 @@
           <t>sulfamethoxazole,trimethoprim_p</t>
         </is>
       </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>sulfamethoxazole,trimethoprim</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -20838,6 +20868,11 @@
           <t>sulfamethoxazole,trimethoprim_o</t>
         </is>
       </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>sulfamethoxazole,trimethoprim</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -20922,6 +20957,11 @@
           <t>sulfametrole,trimethoprim_o</t>
         </is>
       </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>sulfametrole,trimethoprim</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -20964,6 +21004,11 @@
           <t>sulfametrole,trimethoprim_p</t>
         </is>
       </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>sulfametrole,trimethoprim</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -21258,6 +21303,11 @@
           <t>ciprofloxacin,metronidazole_o</t>
         </is>
       </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>ciprofloxacin,metronidazole</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -21300,6 +21350,11 @@
           <t>ciprofloxacin,tinidazole_o</t>
         </is>
       </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>ciprofloxacin,tinidazole</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -21342,6 +21397,11 @@
           <t>ciprofloxacin,ornidazole_o</t>
         </is>
       </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>ciprofloxacin,ornidazole</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -21426,6 +21486,11 @@
           <t>azithromycin,cefixime_o</t>
         </is>
       </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>azithromycin,cefixime</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -21468,6 +21533,11 @@
           <t>furazolidone,metronidazole_o</t>
         </is>
       </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>furazolidone,metronidazole</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -21510,6 +21580,11 @@
           <t>diloxanide,metronidazole_o</t>
         </is>
       </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>diloxanide,metronidazole</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -24028,6 +24103,53 @@
       <c r="I387" t="inlineStr">
         <is>
           <t>pyrazinamide_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>ceftriaxone_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>metronidazole_NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>ciprofloxacin_NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>ceftriaxone_NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>ampicillin_NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>gentamicin_NA</t>
         </is>
       </c>
     </row>

--- a/amc_resources/ab_molecules_amc.xlsx
+++ b/amc_resources/ab_molecules_amc.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M393"/>
+  <dimension ref="A1:M391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24119,37 +24119,28 @@
       </c>
     </row>
     <row r="389">
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>metronidazole_NA</t>
+          <t>acetylspiramycin_o</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="I390" t="inlineStr">
         <is>
-          <t>ciprofloxacin_NA</t>
+          <t>amoxicillin_na</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="I391" t="inlineStr">
         <is>
-          <t>ceftriaxone_NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="I392" t="inlineStr">
-        <is>
-          <t>ampicillin_NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="I393" t="inlineStr">
-        <is>
-          <t>gentamicin_NA</t>
+          <t>amoxicillin_NA</t>
         </is>
       </c>
     </row>

--- a/amc_resources/ab_molecules_amc.xlsx
+++ b/amc_resources/ab_molecules_amc.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M391"/>
+  <dimension ref="A1:M394"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24138,9 +24138,110 @@
       </c>
     </row>
     <row r="391">
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>IM</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>amoxicillin_NA</t>
+          <t>benzylpenicillin_im</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>IM</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>ceftriaxone_im</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>combinations_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>xml:space="preserve"&gt;</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>cefalexin_p</t>
         </is>
       </c>
     </row>

--- a/amc_resources/ab_molecules_amc.xlsx
+++ b/amc_resources/ab_molecules_amc.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M394"/>
+  <dimension ref="A1:M402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24245,6 +24245,222 @@
         </is>
       </c>
     </row>
+    <row r="395">
+      <c r="D395" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="D396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="D397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="D398" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="D399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>satranidazole_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="D400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="D401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>paromomycin_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="D402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xml:space="preserve"&gt; </t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>nitazoxanide_o</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
